--- a/output/ValueSet-th-gov-coverage-type-vs.xlsx
+++ b/output/ValueSet-th-gov-coverage-type-vs.xlsx
@@ -8,13 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Thai Government " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Coverage SelfPay" r:id="rId5" sheetId="3"/>
+    <sheet name="Include ValueSets" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>รหัสประเภทสิทธิ์การรักษาพยาบาลภาครัฐของไทย</t>
+    <t>รหัสประเภทสิทธิ์การรักษาพยาบาลภาครัฐของไทย รวมกับรหัสที่ HL7 กำหนด</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -112,7 +112,10 @@
     <t>https://rathpanyowat.github.io/ncd-th-ig-demo/CodeSystem/th-gov-coverage-type-cs</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/coverage-selfpay</t>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,28 +435,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-th-gov-coverage-type-vs.xlsx
+++ b/output/ValueSet-th-gov-coverage-type-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
